--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N2">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O2">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P2">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q2">
-        <v>1.952810570682889</v>
+        <v>1.048155520960444</v>
       </c>
       <c r="R2">
-        <v>17.575295136146</v>
+        <v>9.433399688643998</v>
       </c>
       <c r="S2">
-        <v>0.0006046786467944204</v>
+        <v>0.0006662153312126489</v>
       </c>
       <c r="T2">
-        <v>0.0006046786467944203</v>
+        <v>0.0006662153312126489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q3">
-        <v>3.747882984770222</v>
+        <v>3.550936930640888</v>
       </c>
       <c r="R3">
-        <v>33.730946862932</v>
+        <v>31.958432375768</v>
       </c>
       <c r="S3">
-        <v>0.001160514412200354</v>
+        <v>0.002257001538468664</v>
       </c>
       <c r="T3">
-        <v>0.001160514412200354</v>
+        <v>0.002257001538468664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H4">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N4">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O4">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P4">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q4">
-        <v>3.586428628527555</v>
+        <v>2.207535698385333</v>
       </c>
       <c r="R4">
-        <v>32.277857656748</v>
+        <v>19.867821285468</v>
       </c>
       <c r="S4">
-        <v>0.001110520826996778</v>
+        <v>0.001403125869256412</v>
       </c>
       <c r="T4">
-        <v>0.001110520826996777</v>
+        <v>0.001403125869256412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H5">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N5">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O5">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P5">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q5">
-        <v>4.044720570679556</v>
+        <v>3.858872806140444</v>
       </c>
       <c r="R5">
-        <v>36.40248513611601</v>
+        <v>34.72985525526399</v>
       </c>
       <c r="S5">
-        <v>0.001252428780373101</v>
+        <v>0.002452727837844742</v>
       </c>
       <c r="T5">
-        <v>0.001252428780373101</v>
+        <v>0.002452727837844742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.958761</v>
       </c>
       <c r="I6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N6">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O6">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P6">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q6">
-        <v>0.965758144307</v>
+        <v>0.5471130230769999</v>
       </c>
       <c r="R6">
-        <v>8.691823298763</v>
+        <v>4.924017207693</v>
       </c>
       <c r="S6">
-        <v>0.0002990424860441197</v>
+        <v>0.0003477490473417567</v>
       </c>
       <c r="T6">
-        <v>0.0002990424860441197</v>
+        <v>0.0003477490473417567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.958761</v>
       </c>
       <c r="I7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q7">
         <v>1.853507232494</v>
@@ -883,10 +883,10 @@
         <v>16.681565092446</v>
       </c>
       <c r="S7">
-        <v>0.0005739298332332421</v>
+        <v>0.00117810278160776</v>
       </c>
       <c r="T7">
-        <v>0.0005739298332332421</v>
+        <v>0.00117810278160776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.958761</v>
       </c>
       <c r="I8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N8">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O8">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P8">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q8">
-        <v>1.773660338066</v>
+        <v>1.152282753219</v>
       </c>
       <c r="R8">
-        <v>15.962943042594</v>
+        <v>10.370544778971</v>
       </c>
       <c r="S8">
-        <v>0.0005492056163540923</v>
+        <v>0.0007323993632004057</v>
       </c>
       <c r="T8">
-        <v>0.0005492056163540922</v>
+        <v>0.0007323993632004057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.958761</v>
       </c>
       <c r="I9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N9">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O9">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P9">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q9">
-        <v>2.000307603422</v>
+        <v>2.014242661912</v>
       </c>
       <c r="R9">
-        <v>18.002768430798</v>
+        <v>18.128183957208</v>
       </c>
       <c r="S9">
-        <v>0.0006193858805192934</v>
+        <v>0.001280267398600091</v>
       </c>
       <c r="T9">
-        <v>0.0006193858805192934</v>
+        <v>0.00128026739860009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H10">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N10">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O10">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P10">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q10">
-        <v>8.150634257202556</v>
+        <v>0.1985111560136666</v>
       </c>
       <c r="R10">
-        <v>73.35570831482299</v>
+        <v>1.786600404123</v>
       </c>
       <c r="S10">
-        <v>0.002523805722455716</v>
+        <v>0.0001261751456805442</v>
       </c>
       <c r="T10">
-        <v>0.002523805722455716</v>
+        <v>0.0001261751456805442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H11">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q11">
-        <v>15.64290152166289</v>
+        <v>0.6725152717673333</v>
       </c>
       <c r="R11">
-        <v>140.786113694966</v>
+        <v>6.052637445906</v>
       </c>
       <c r="S11">
-        <v>0.004843751189215322</v>
+        <v>0.0004274556357013616</v>
       </c>
       <c r="T11">
-        <v>0.004843751189215322</v>
+        <v>0.0004274556357013616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H12">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N12">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O12">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P12">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q12">
-        <v>14.96902386720822</v>
+        <v>0.4180872539089999</v>
       </c>
       <c r="R12">
-        <v>134.721214804874</v>
+        <v>3.762785285180999</v>
       </c>
       <c r="S12">
-        <v>0.004635088129767547</v>
+        <v>0.0002657393228092176</v>
       </c>
       <c r="T12">
-        <v>0.004635088129767546</v>
+        <v>0.0002657393228092177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H13">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N13">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O13">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P13">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q13">
-        <v>16.88184124928422</v>
+        <v>0.7308355356986665</v>
       </c>
       <c r="R13">
-        <v>151.936571243558</v>
+        <v>6.577519821287999</v>
       </c>
       <c r="S13">
-        <v>0.005227383073026734</v>
+        <v>0.0004645244228941437</v>
       </c>
       <c r="T13">
-        <v>0.005227383073026734</v>
+        <v>0.0004645244228941437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H14">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N14">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O14">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P14">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q14">
-        <v>461.9790244047416</v>
+        <v>152.8226251726546</v>
       </c>
       <c r="R14">
-        <v>4157.811219642675</v>
+        <v>1375.403626553891</v>
       </c>
       <c r="S14">
-        <v>0.1430496411266243</v>
+        <v>0.09713518061985078</v>
       </c>
       <c r="T14">
-        <v>0.1430496411266243</v>
+        <v>0.0971351806198508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H15">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q15">
-        <v>886.641720851501</v>
+        <v>517.7318563048891</v>
       </c>
       <c r="R15">
-        <v>7979.775487663509</v>
+        <v>4659.586706744003</v>
       </c>
       <c r="S15">
-        <v>0.2745444560802835</v>
+        <v>0.3290741624023923</v>
       </c>
       <c r="T15">
-        <v>0.2745444560802835</v>
+        <v>0.3290741624023923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H16">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N16">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O16">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P16">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q16">
-        <v>848.4462465424901</v>
+        <v>321.8619697585196</v>
       </c>
       <c r="R16">
-        <v>7636.016218882412</v>
+        <v>2896.757727826677</v>
       </c>
       <c r="S16">
-        <v>0.2627174063573977</v>
+        <v>0.2045778269535251</v>
       </c>
       <c r="T16">
-        <v>0.2627174063573976</v>
+        <v>0.2045778269535252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H17">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N17">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O17">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P17">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q17">
-        <v>956.8649879741783</v>
+        <v>562.6293623882996</v>
       </c>
       <c r="R17">
-        <v>8611.784891767606</v>
+        <v>5063.664261494696</v>
       </c>
       <c r="S17">
-        <v>0.2962887618387139</v>
+        <v>0.3576113463296141</v>
       </c>
       <c r="T17">
-        <v>0.2962887618387139</v>
+        <v>0.3576113463296141</v>
       </c>
     </row>
   </sheetData>
